--- a/Attitude to Change.xlsx
+++ b/Attitude to Change.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jevers\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE3947A-1AF4-4FD1-A6A7-20172AE23A76}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A960300-63BD-4DDB-8A43-133FF460D445}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FE5EDB61-EB35-4A92-8D61-830055B7C05D}"/>
+    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15840" xr2:uid="{FE5EDB61-EB35-4A92-8D61-830055B7C05D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -54,9 +54,6 @@
     <t>6. If something’s broken, I’ll find a way to fix it</t>
   </si>
   <si>
-    <t>7. I get impatient when there are no clear answers</t>
-  </si>
-  <si>
     <t>8. I’m inclined to establish routines and stay with them</t>
   </si>
   <si>
@@ -190,6 +187,9 @@
   </si>
   <si>
     <t>Drive /Passion</t>
+  </si>
+  <si>
+    <t>7. I get impatient when there are no clear answers HELLO</t>
   </si>
 </sst>
 </file>
@@ -553,7 +553,7 @@
   <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -563,13 +563,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" t="s">
         <v>42</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>43</v>
-      </c>
-      <c r="C1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -580,7 +580,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -591,7 +591,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -602,7 +602,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -613,7 +613,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -624,7 +624,7 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -635,326 +635,326 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10">
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11">
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12">
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14">
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15">
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16">
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17">
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18">
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19">
         <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20">
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21">
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22">
         <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23">
         <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24">
         <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25">
         <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26">
         <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27">
         <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28">
         <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31">
         <v>3</v>
       </c>
       <c r="C31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B32">
         <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B33">
         <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B34">
         <v>2</v>
       </c>
       <c r="C34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B35">
         <v>4</v>
       </c>
       <c r="C35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B36">
         <v>2</v>
       </c>
       <c r="C36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -963,7 +963,7 @@
         <v>23</v>
       </c>
       <c r="C37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -972,7 +972,7 @@
         <v>23</v>
       </c>
       <c r="C38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -981,7 +981,7 @@
         <v>26</v>
       </c>
       <c r="C39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -990,7 +990,7 @@
         <v>24</v>
       </c>
       <c r="C40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -999,7 +999,7 @@
         <v>17</v>
       </c>
       <c r="C41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -1008,7 +1008,7 @@
         <v>23</v>
       </c>
       <c r="C42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -1017,7 +1017,7 @@
         <v>20</v>
       </c>
       <c r="C43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
